--- a/DATA_goal/Junction_Flooding_416.xlsx
+++ b/DATA_goal/Junction_Flooding_416.xlsx
@@ -447,10 +447,10 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -464,10 +464,10 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.92</v>
+        <v>49.2</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.32</v>
+        <v>23.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>95.33</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_416.xlsx
+++ b/DATA_goal/Junction_Flooding_416.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45097.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45097.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.44</v>
+        <v>5.005</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.48</v>
+        <v>3.813</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.43</v>
+        <v>11.126</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.66</v>
+        <v>8.677</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.11</v>
+        <v>3.398</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>15.294</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.32</v>
+        <v>6.169</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.5</v>
+        <v>3.216</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.02</v>
+        <v>3.824</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.77</v>
+        <v>4.409</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.13</v>
+        <v>5.051</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.855</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.37</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.08</v>
+        <v>5.456</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.77</v>
+        <v>3.629</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.504</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.2</v>
+        <v>55.623</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>11.627</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.14</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.66</v>
+        <v>7.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.3</v>
+        <v>4.345</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.572</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.56</v>
+        <v>8.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.91</v>
+        <v>3.073</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.363</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.21</v>
+        <v>4.033</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.4</v>
+        <v>5.333</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.58</v>
+        <v>14.501</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.26</v>
+        <v>2.453</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.93</v>
+        <v>4.471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45097.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.42</v>
+        <v>24.305</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.39</v>
+        <v>18.276</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.066</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.82</v>
+        <v>53.109</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.63</v>
+        <v>43.488</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.35</v>
+        <v>18.734</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.16</v>
+        <v>69.486</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.18</v>
+        <v>29.497</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.67</v>
+        <v>13.604</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.07</v>
+        <v>19.523</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.83</v>
+        <v>21.268</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.48</v>
+        <v>22.767</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.45</v>
+        <v>6.534</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.52</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.58</v>
+        <v>27.068</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.41</v>
+        <v>16.059</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.281</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.953</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.33</v>
+        <v>284.528</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.36</v>
+        <v>53.527</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.03</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.65</v>
+        <v>35.898</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.47</v>
+        <v>19.222</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.91</v>
+        <v>2.528</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.54</v>
+        <v>35.593</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.45</v>
+        <v>15.427</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.07</v>
+        <v>14.021</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.78</v>
+        <v>16.526</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.5</v>
+        <v>22.788</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.21</v>
+        <v>63.413</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.78</v>
+        <v>10.29</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.56</v>
+        <v>21.919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45097.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.2</v>
+        <v>21.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.43</v>
+        <v>16.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.31</v>
+        <v>47.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.13</v>
+        <v>39.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.31</v>
+        <v>16.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.91</v>
+        <v>68.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.87</v>
+        <v>26.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.87</v>
+        <v>12.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.76</v>
+        <v>17.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.11</v>
+        <v>19.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.49</v>
+        <v>20.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.05</v>
+        <v>5.85</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.45</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.79</v>
+        <v>24.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.05</v>
+        <v>14.48</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.55</v>
+        <v>255.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.21</v>
+        <v>48.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.27</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.1</v>
+        <v>32.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.47</v>
+        <v>17.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.36</v>
+        <v>2.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.01</v>
+        <v>33.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.11</v>
+        <v>13.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.05</v>
+        <v>12.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.29</v>
+        <v>14.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.48</v>
+        <v>20.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.26</v>
+        <v>62.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.55</v>
+        <v>9.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.63</v>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_416.xlsx
+++ b/DATA_goal/Junction_Flooding_416.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45097.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45097.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.005</v>
+        <v>4.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.813</v>
+        <v>3.483</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.126</v>
+        <v>10.434</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.677</v>
+        <v>8.664</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.398</v>
+        <v>3.106</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.294</v>
+        <v>9.624000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.169</v>
+        <v>5.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.216</v>
+        <v>2.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.824</v>
+        <v>4.023</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.409</v>
+        <v>4.766</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.051</v>
+        <v>5.134</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.855</v>
+        <v>1.675</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.136</v>
+        <v>3.368</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.456</v>
+        <v>5.08</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.629</v>
+        <v>2.773</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.191</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.504</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.623</v>
+        <v>49.197</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.627</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.817</v>
+        <v>3.138</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.36</v>
+        <v>6.659</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.345</v>
+        <v>3.297</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.572</v>
+        <v>0.537</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.85</v>
+        <v>4.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.073</v>
+        <v>2.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.363</v>
+        <v>3.029</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.033</v>
+        <v>3.215</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.333</v>
+        <v>5.396</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.501</v>
+        <v>8.577999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.453</v>
+        <v>2.263</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.471</v>
+        <v>3.928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45097.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.305</v>
+        <v>8.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.276</v>
+        <v>6.386</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.066</v>
+        <v>0.132</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>53.109</v>
+        <v>18.817</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.488</v>
+        <v>15.627</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.734</v>
+        <v>6.355</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.486</v>
+        <v>23.164</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.497</v>
+        <v>10.182</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.604</v>
+        <v>4.675</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.523</v>
+        <v>7.071</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.268</v>
+        <v>7.834</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.767</v>
+        <v>8.483000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.534</v>
+        <v>2.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>19.174</v>
+        <v>6.521</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.068</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16.059</v>
+        <v>5.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.281</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.953</v>
+        <v>0.555</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.528</v>
+        <v>95.333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.527</v>
+        <v>18.356</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.698</v>
+        <v>6.028</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.898</v>
+        <v>12.654</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>19.222</v>
+        <v>6.467</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.528</v>
+        <v>0.908</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.593</v>
+        <v>11.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.427</v>
+        <v>5.451</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>14.021</v>
+        <v>5.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.526</v>
+        <v>5.782</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.788</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.419</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.413</v>
+        <v>21.205</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.29</v>
+        <v>3.775</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.919</v>
+        <v>7.555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45097.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.95</v>
+        <v>3.195</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.49</v>
+        <v>2.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.007</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.96</v>
+        <v>7.311</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.3</v>
+        <v>6.127</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.96</v>
+        <v>2.311</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.06</v>
+        <v>12.908</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.62</v>
+        <v>3.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.27</v>
+        <v>1.868</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.63</v>
+        <v>2.756</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.21</v>
+        <v>3.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.53</v>
+        <v>3.494</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.85</v>
+        <v>1.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.29</v>
+        <v>2.453</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.48</v>
+        <v>3.788</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.48</v>
+        <v>2.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.034</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.308</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.93</v>
+        <v>32.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.39</v>
+        <v>7.207</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.96</v>
+        <v>2.266</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.5</v>
+        <v>5.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.33</v>
+        <v>2.473</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.28</v>
+        <v>0.357</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.7</v>
+        <v>6.009</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.94</v>
+        <v>2.109</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.62</v>
+        <v>2.048</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.86</v>
+        <v>2.291</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.5</v>
+        <v>3.484</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.275</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.14</v>
+        <v>12.255</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.26</v>
+        <v>1.549</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.8</v>
+        <v>2.856</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.63</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_416.xlsx
+++ b/DATA_goal/Junction_Flooding_416.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45097.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45097.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.44</v>
+        <v>5.005</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.483</v>
+        <v>3.813</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.434</v>
+        <v>11.126</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.664</v>
+        <v>8.677</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.106</v>
+        <v>3.398</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.624000000000001</v>
+        <v>15.294</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.32</v>
+        <v>6.169</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.5</v>
+        <v>3.216</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.023</v>
+        <v>3.824</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.766</v>
+        <v>4.409</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.134</v>
+        <v>5.051</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.675</v>
+        <v>1.855</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.368</v>
+        <v>4.136</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.08</v>
+        <v>5.456</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.773</v>
+        <v>3.629</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.191</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.665</v>
+        <v>0.504</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.197</v>
+        <v>55.623</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.452999999999999</v>
+        <v>11.627</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.138</v>
+        <v>3.817</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.659</v>
+        <v>7.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.297</v>
+        <v>4.345</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.537</v>
+        <v>0.572</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.56</v>
+        <v>8.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.91</v>
+        <v>3.073</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.029</v>
+        <v>3.363</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.215</v>
+        <v>4.033</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.396</v>
+        <v>5.333</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.577999999999999</v>
+        <v>14.501</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.263</v>
+        <v>2.453</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.928</v>
+        <v>4.471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45097.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.42</v>
+        <v>24.305</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.386</v>
+        <v>18.276</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.132</v>
+        <v>1.066</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.817</v>
+        <v>53.109</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.627</v>
+        <v>43.488</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.355</v>
+        <v>18.734</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.164</v>
+        <v>69.486</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.182</v>
+        <v>29.497</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.675</v>
+        <v>13.604</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.071</v>
+        <v>19.523</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.834</v>
+        <v>21.268</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.483000000000001</v>
+        <v>22.767</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.45</v>
+        <v>6.534</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.521</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.577999999999999</v>
+        <v>27.068</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.41</v>
+        <v>16.059</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.281</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.555</v>
+        <v>0.953</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.333</v>
+        <v>284.528</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.356</v>
+        <v>53.527</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.028</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.654</v>
+        <v>35.898</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.467</v>
+        <v>19.222</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.908</v>
+        <v>2.528</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.54</v>
+        <v>35.593</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.451</v>
+        <v>15.427</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.07</v>
+        <v>14.021</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.782</v>
+        <v>16.526</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>22.788</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.419</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.205</v>
+        <v>63.413</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.775</v>
+        <v>10.29</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.555</v>
+        <v>21.919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45097.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.195</v>
+        <v>21.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.43</v>
+        <v>16.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.007</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.311</v>
+        <v>47.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.127</v>
+        <v>39.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.311</v>
+        <v>16.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.908</v>
+        <v>68.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.87</v>
+        <v>26.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.868</v>
+        <v>12.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.756</v>
+        <v>17.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.11</v>
+        <v>19.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.494</v>
+        <v>20.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.05</v>
+        <v>5.85</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.453</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.788</v>
+        <v>24.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.05</v>
+        <v>14.48</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.034</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.308</v>
+        <v>0.82</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.55</v>
+        <v>255.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.207</v>
+        <v>48.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.266</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.1</v>
+        <v>32.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.473</v>
+        <v>17.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.357</v>
+        <v>2.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.009</v>
+        <v>33.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.109</v>
+        <v>13.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.048</v>
+        <v>12.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.291</v>
+        <v>14.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.484</v>
+        <v>20.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.275</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.255</v>
+        <v>62.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.549</v>
+        <v>9.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.856</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.63</v>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
